--- a/natmiOut/OldD4/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H2">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I2">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J2">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.79232165150937</v>
+        <v>14.80994433333333</v>
       </c>
       <c r="N2">
-        <v>6.79232165150937</v>
+        <v>44.429833</v>
       </c>
       <c r="O2">
-        <v>0.01389304980543925</v>
+        <v>0.02684012165618721</v>
       </c>
       <c r="P2">
-        <v>0.01389304980543925</v>
+        <v>0.02873734127486288</v>
       </c>
       <c r="Q2">
-        <v>5.434828779144262</v>
+        <v>11.99078256981733</v>
       </c>
       <c r="R2">
-        <v>5.434828779144262</v>
+        <v>107.917043128356</v>
       </c>
       <c r="S2">
-        <v>0.005544048104678157</v>
+        <v>0.009058323381805941</v>
       </c>
       <c r="T2">
-        <v>0.005544048104678157</v>
+        <v>0.0115752401399149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H3">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I3">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J3">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>177.706500263945</v>
+        <v>190.4708326666667</v>
       </c>
       <c r="N3">
-        <v>177.706500263945</v>
+        <v>571.412498</v>
       </c>
       <c r="O3">
-        <v>0.3634817939413487</v>
+        <v>0.3451910557977075</v>
       </c>
       <c r="P3">
-        <v>0.3634817939413487</v>
+        <v>0.3695912150682156</v>
       </c>
       <c r="Q3">
-        <v>142.1906163205444</v>
+        <v>154.2135668435707</v>
       </c>
       <c r="R3">
-        <v>142.1906163205444</v>
+        <v>1387.922101592136</v>
       </c>
       <c r="S3">
-        <v>0.1450481052761071</v>
+        <v>0.1164991817837699</v>
       </c>
       <c r="T3">
-        <v>0.1450481052761071</v>
+        <v>0.1488692717638313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H4">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I4">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J4">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.652919114897</v>
+        <v>131.637568</v>
       </c>
       <c r="N4">
-        <v>123.652919114897</v>
+        <v>394.9127040000001</v>
       </c>
       <c r="O4">
-        <v>0.2529203197362516</v>
+        <v>0.2385672937130745</v>
       </c>
       <c r="P4">
-        <v>0.2529203197362516</v>
+        <v>0.2554306505862155</v>
       </c>
       <c r="Q4">
-        <v>98.94002049821989</v>
+        <v>106.579567105792</v>
       </c>
       <c r="R4">
-        <v>98.94002049821989</v>
+        <v>959.2161039521283</v>
       </c>
       <c r="S4">
-        <v>0.1009283374712574</v>
+        <v>0.08051452681389572</v>
       </c>
       <c r="T4">
-        <v>0.1009283374712574</v>
+        <v>0.1028860356756941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H5">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I5">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J5">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>87.53105003440881</v>
+        <v>105.580288</v>
       </c>
       <c r="N5">
-        <v>87.53105003440881</v>
+        <v>316.740864</v>
       </c>
       <c r="O5">
-        <v>0.1790364620586253</v>
+        <v>0.1913435804101682</v>
       </c>
       <c r="P5">
-        <v>0.1790364620586253</v>
+        <v>0.2048688840325582</v>
       </c>
       <c r="Q5">
-        <v>70.03735897725177</v>
+        <v>85.482446697472</v>
       </c>
       <c r="R5">
-        <v>70.03735897725177</v>
+        <v>769.342020277248</v>
       </c>
       <c r="S5">
-        <v>0.07144484271234658</v>
+        <v>0.06457690656511393</v>
       </c>
       <c r="T5">
-        <v>0.07144484271234658</v>
+        <v>0.08252003924759575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H6">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I6">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J6">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.21790004556171</v>
+        <v>109.2851675</v>
       </c>
       <c r="N6">
-        <v>93.21790004556171</v>
+        <v>218.570335</v>
       </c>
       <c r="O6">
-        <v>0.1906683744583352</v>
+        <v>0.1980579484228624</v>
       </c>
       <c r="P6">
-        <v>0.1906683744583352</v>
+        <v>0.141371909038148</v>
       </c>
       <c r="Q6">
-        <v>74.58765233628645</v>
+        <v>88.48208015537</v>
       </c>
       <c r="R6">
-        <v>74.58765233628645</v>
+        <v>530.89248093222</v>
       </c>
       <c r="S6">
-        <v>0.0760865796093198</v>
+        <v>0.06684295131493036</v>
       </c>
       <c r="T6">
-        <v>0.0760865796093198</v>
+        <v>0.05694381329514891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H7">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I7">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J7">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.79232165150937</v>
+        <v>14.80994433333333</v>
       </c>
       <c r="N7">
-        <v>6.79232165150937</v>
+        <v>44.429833</v>
       </c>
       <c r="O7">
-        <v>0.01389304980543925</v>
+        <v>0.02684012165618721</v>
       </c>
       <c r="P7">
-        <v>0.01389304980543925</v>
+        <v>0.02873734127486288</v>
       </c>
       <c r="Q7">
-        <v>1.057245007680431</v>
+        <v>3.802482827472001</v>
       </c>
       <c r="R7">
-        <v>1.057245007680431</v>
+        <v>34.222345447248</v>
       </c>
       <c r="S7">
-        <v>0.001078491599128914</v>
+        <v>0.002872549719290749</v>
       </c>
       <c r="T7">
-        <v>0.001078491599128914</v>
+        <v>0.003670707195265363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H8">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I8">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J8">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>177.706500263945</v>
+        <v>190.4708326666667</v>
       </c>
       <c r="N8">
-        <v>177.706500263945</v>
+        <v>571.412498</v>
       </c>
       <c r="O8">
-        <v>0.3634817939413487</v>
+        <v>0.3451910557977075</v>
       </c>
       <c r="P8">
-        <v>0.3634817939413487</v>
+        <v>0.3695912150682156</v>
       </c>
       <c r="Q8">
-        <v>27.66054375453009</v>
+        <v>48.90376722883201</v>
       </c>
       <c r="R8">
-        <v>27.66054375453009</v>
+        <v>440.133905059488</v>
       </c>
       <c r="S8">
-        <v>0.02821641516383072</v>
+        <v>0.0369438888219347</v>
       </c>
       <c r="T8">
-        <v>0.02821641516383072</v>
+        <v>0.04720899958982864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H9">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I9">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J9">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.652919114897</v>
+        <v>131.637568</v>
       </c>
       <c r="N9">
-        <v>123.652919114897</v>
+        <v>394.9127040000001</v>
       </c>
       <c r="O9">
-        <v>0.2529203197362516</v>
+        <v>0.2385672937130745</v>
       </c>
       <c r="P9">
-        <v>0.2529203197362516</v>
+        <v>0.2554306505862155</v>
       </c>
       <c r="Q9">
-        <v>19.24694355284046</v>
+        <v>33.79820885913601</v>
       </c>
       <c r="R9">
-        <v>19.24694355284046</v>
+        <v>304.1838797322241</v>
       </c>
       <c r="S9">
-        <v>0.01963373369450913</v>
+        <v>0.02553253749613578</v>
       </c>
       <c r="T9">
-        <v>0.01963373369450913</v>
+        <v>0.03262692668852707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H10">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I10">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J10">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.53105003440881</v>
+        <v>105.580288</v>
       </c>
       <c r="N10">
-        <v>87.53105003440881</v>
+        <v>316.740864</v>
       </c>
       <c r="O10">
-        <v>0.1790364620586253</v>
+        <v>0.1913435804101682</v>
       </c>
       <c r="P10">
-        <v>0.1790364620586253</v>
+        <v>0.2048688840325582</v>
       </c>
       <c r="Q10">
-        <v>13.6244675110962</v>
+        <v>27.107950104576</v>
       </c>
       <c r="R10">
-        <v>13.6244675110962</v>
+        <v>243.971550941184</v>
       </c>
       <c r="S10">
-        <v>0.0138982673330944</v>
+        <v>0.02047844474164711</v>
       </c>
       <c r="T10">
-        <v>0.0138982673330944</v>
+        <v>0.02616851988886314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H11">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I11">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J11">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>93.21790004556171</v>
+        <v>109.2851675</v>
       </c>
       <c r="N11">
-        <v>93.21790004556171</v>
+        <v>218.570335</v>
       </c>
       <c r="O11">
-        <v>0.1906683744583352</v>
+        <v>0.1980579484228624</v>
       </c>
       <c r="P11">
-        <v>0.1906683744583352</v>
+        <v>0.141371909038148</v>
       </c>
       <c r="Q11">
-        <v>14.50964257968011</v>
+        <v>28.05918532596001</v>
       </c>
       <c r="R11">
-        <v>14.50964257968011</v>
+        <v>168.35511195576</v>
       </c>
       <c r="S11">
-        <v>0.01480123104376786</v>
+        <v>0.02119704640065387</v>
       </c>
       <c r="T11">
-        <v>0.01480123104376786</v>
+        <v>0.01805785993739974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H12">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I12">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J12">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.79232165150937</v>
+        <v>14.80994433333333</v>
       </c>
       <c r="N12">
-        <v>6.79232165150937</v>
+        <v>44.429833</v>
       </c>
       <c r="O12">
-        <v>0.01389304980543925</v>
+        <v>0.02684012165618721</v>
       </c>
       <c r="P12">
-        <v>0.01389304980543925</v>
+        <v>0.02873734127486288</v>
       </c>
       <c r="Q12">
-        <v>7.1272789833961</v>
+        <v>2.455508517059111</v>
       </c>
       <c r="R12">
-        <v>7.1272789833961</v>
+        <v>22.099576653532</v>
       </c>
       <c r="S12">
-        <v>0.007270510101632173</v>
+        <v>0.001854990705134521</v>
       </c>
       <c r="T12">
-        <v>0.007270510101632173</v>
+        <v>0.002370412488515211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H13">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I13">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J13">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>177.706500263945</v>
+        <v>190.4708326666667</v>
       </c>
       <c r="N13">
-        <v>177.706500263945</v>
+        <v>571.412498</v>
       </c>
       <c r="O13">
-        <v>0.3634817939413487</v>
+        <v>0.3451910557977075</v>
       </c>
       <c r="P13">
-        <v>0.3634817939413487</v>
+        <v>0.3695912150682156</v>
       </c>
       <c r="Q13">
-        <v>186.4699390763741</v>
+        <v>31.58031801724356</v>
       </c>
       <c r="R13">
-        <v>186.4699390763741</v>
+        <v>284.222862155192</v>
       </c>
       <c r="S13">
-        <v>0.1902172735014108</v>
+        <v>0.02385705281826511</v>
       </c>
       <c r="T13">
-        <v>0.1902172735014108</v>
+        <v>0.03048589719778765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1281,49 +1281,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H14">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I14">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J14">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.652919114897</v>
+        <v>131.637568</v>
       </c>
       <c r="N14">
-        <v>123.652919114897</v>
+        <v>394.9127040000001</v>
       </c>
       <c r="O14">
-        <v>0.2529203197362516</v>
+        <v>0.2385672937130745</v>
       </c>
       <c r="P14">
-        <v>0.2529203197362516</v>
+        <v>0.2554306505862155</v>
       </c>
       <c r="Q14">
-        <v>129.750753403638</v>
+        <v>21.82568429115733</v>
       </c>
       <c r="R14">
-        <v>129.750753403638</v>
+        <v>196.4311586204161</v>
       </c>
       <c r="S14">
-        <v>0.132358248570485</v>
+        <v>0.01648800694928429</v>
       </c>
       <c r="T14">
-        <v>0.132358248570485</v>
+        <v>0.02106931181656504</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H15">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I15">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J15">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>87.53105003440881</v>
+        <v>105.580288</v>
       </c>
       <c r="N15">
-        <v>87.53105003440881</v>
+        <v>316.740864</v>
       </c>
       <c r="O15">
-        <v>0.1790364620586253</v>
+        <v>0.1913435804101682</v>
       </c>
       <c r="P15">
-        <v>0.1790364620586253</v>
+        <v>0.2048688840325582</v>
       </c>
       <c r="Q15">
-        <v>91.84756631279414</v>
+        <v>17.50535252411733</v>
       </c>
       <c r="R15">
-        <v>91.84756631279414</v>
+        <v>157.548172717056</v>
       </c>
       <c r="S15">
-        <v>0.09369335201318425</v>
+        <v>0.01322425314216863</v>
       </c>
       <c r="T15">
-        <v>0.09369335201318425</v>
+        <v>0.01689870181705833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1658013333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.497404</v>
+      </c>
+      <c r="I16">
+        <v>0.06911260421604337</v>
+      </c>
+      <c r="J16">
+        <v>0.08248544866565852</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>109.2851675</v>
+      </c>
+      <c r="N16">
+        <v>218.570335</v>
+      </c>
+      <c r="O16">
+        <v>0.1980579484228624</v>
+      </c>
+      <c r="P16">
+        <v>0.141371909038148</v>
+      </c>
+      <c r="Q16">
+        <v>18.11962648505667</v>
+      </c>
+      <c r="R16">
+        <v>108.71775891034</v>
+      </c>
+      <c r="S16">
+        <v>0.01368830060119082</v>
+      </c>
+      <c r="T16">
+        <v>0.0116611253457323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.1668055</v>
+      </c>
+      <c r="H17">
+        <v>2.333611</v>
+      </c>
+      <c r="I17">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J17">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.80994433333333</v>
+      </c>
+      <c r="N17">
+        <v>44.429833</v>
+      </c>
+      <c r="O17">
+        <v>0.02684012165618721</v>
+      </c>
+      <c r="P17">
+        <v>0.02873734127486288</v>
+      </c>
+      <c r="Q17">
+        <v>17.28032450282717</v>
+      </c>
+      <c r="R17">
+        <v>103.681947016963</v>
+      </c>
+      <c r="S17">
+        <v>0.013054257849956</v>
+      </c>
+      <c r="T17">
+        <v>0.0111209814511674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.1668055</v>
+      </c>
+      <c r="H18">
+        <v>2.333611</v>
+      </c>
+      <c r="I18">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J18">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>190.4708326666667</v>
+      </c>
+      <c r="N18">
+        <v>571.412498</v>
+      </c>
+      <c r="O18">
+        <v>0.3451910557977075</v>
+      </c>
+      <c r="P18">
+        <v>0.3695912150682156</v>
+      </c>
+      <c r="Q18">
+        <v>222.2424151450464</v>
+      </c>
+      <c r="R18">
+        <v>1333.454490870278</v>
+      </c>
+      <c r="S18">
+        <v>0.1678909323737378</v>
+      </c>
+      <c r="T18">
+        <v>0.143027046516768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.1668055</v>
+      </c>
+      <c r="H19">
+        <v>2.333611</v>
+      </c>
+      <c r="I19">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J19">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>131.637568</v>
+      </c>
+      <c r="N19">
+        <v>394.9127040000001</v>
+      </c>
+      <c r="O19">
+        <v>0.2385672937130745</v>
+      </c>
+      <c r="P19">
+        <v>0.2554306505862155</v>
+      </c>
+      <c r="Q19">
+        <v>153.5954383490241</v>
+      </c>
+      <c r="R19">
+        <v>921.5726300941443</v>
+      </c>
+      <c r="S19">
+        <v>0.1160322224537587</v>
+      </c>
+      <c r="T19">
+        <v>0.0988483764054293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.04931411512473</v>
-      </c>
-      <c r="H16">
-        <v>1.04931411512473</v>
-      </c>
-      <c r="I16">
-        <v>0.5233199479919598</v>
-      </c>
-      <c r="J16">
-        <v>0.5233199479919598</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>93.21790004556171</v>
-      </c>
-      <c r="N16">
-        <v>93.21790004556171</v>
-      </c>
-      <c r="O16">
-        <v>0.1906683744583352</v>
-      </c>
-      <c r="P16">
-        <v>0.1906683744583352</v>
-      </c>
-      <c r="Q16">
-        <v>97.81485830009412</v>
-      </c>
-      <c r="R16">
-        <v>97.81485830009412</v>
-      </c>
-      <c r="S16">
-        <v>0.09978056380524748</v>
-      </c>
-      <c r="T16">
-        <v>0.09978056380524748</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.1668055</v>
+      </c>
+      <c r="H20">
+        <v>2.333611</v>
+      </c>
+      <c r="I20">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J20">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>105.580288</v>
+      </c>
+      <c r="N20">
+        <v>316.740864</v>
+      </c>
+      <c r="O20">
+        <v>0.1913435804101682</v>
+      </c>
+      <c r="P20">
+        <v>0.2048688840325582</v>
+      </c>
+      <c r="Q20">
+        <v>123.191660729984</v>
+      </c>
+      <c r="R20">
+        <v>739.1499643799041</v>
+      </c>
+      <c r="S20">
+        <v>0.0930639759612386</v>
+      </c>
+      <c r="T20">
+        <v>0.07928162307904099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.1668055</v>
+      </c>
+      <c r="H21">
+        <v>2.333611</v>
+      </c>
+      <c r="I21">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J21">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>109.2851675</v>
+      </c>
+      <c r="N21">
+        <v>218.570335</v>
+      </c>
+      <c r="O21">
+        <v>0.1980579484228624</v>
+      </c>
+      <c r="P21">
+        <v>0.141371909038148</v>
+      </c>
+      <c r="Q21">
+        <v>127.5145345074213</v>
+      </c>
+      <c r="R21">
+        <v>510.0581380296851</v>
+      </c>
+      <c r="S21">
+        <v>0.09632965010608735</v>
+      </c>
+      <c r="T21">
+        <v>0.05470911045986703</v>
       </c>
     </row>
   </sheetData>
